--- a/data/pca/factorExposure/factorExposure_2018-12-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.104425528755388</v>
+        <v>0.06681187501900387</v>
       </c>
       <c r="C2">
-        <v>0.02154157435118931</v>
+        <v>0.03365485229409243</v>
       </c>
       <c r="D2">
-        <v>-0.06521265855018636</v>
+        <v>0.01894255671814523</v>
       </c>
       <c r="E2">
-        <v>0.01899897032824368</v>
+        <v>-0.03678526046411054</v>
       </c>
       <c r="F2">
-        <v>0.1240992622339236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1221901830992611</v>
+      </c>
+      <c r="G2">
+        <v>-0.06641357143834489</v>
+      </c>
+      <c r="H2">
+        <v>0.06263325244629031</v>
+      </c>
+      <c r="I2">
+        <v>-0.1113297483658622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2107701968494975</v>
+        <v>0.1527109569197549</v>
       </c>
       <c r="C3">
-        <v>-0.1214500446189597</v>
+        <v>0.1069356152386813</v>
       </c>
       <c r="D3">
-        <v>-0.1090497685797848</v>
+        <v>-0.0003590277652179365</v>
       </c>
       <c r="E3">
-        <v>-0.01180494283570292</v>
+        <v>0.02420110237344572</v>
       </c>
       <c r="F3">
-        <v>0.3883208577264486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3908381463291971</v>
+      </c>
+      <c r="G3">
+        <v>-0.2820927126028872</v>
+      </c>
+      <c r="H3">
+        <v>0.1149905804064185</v>
+      </c>
+      <c r="I3">
+        <v>-0.3554008389487818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0920819462834996</v>
+        <v>0.06911637215249181</v>
       </c>
       <c r="C4">
-        <v>-0.014749944545423</v>
+        <v>0.05021116405079137</v>
       </c>
       <c r="D4">
-        <v>-0.06394931526898838</v>
+        <v>-0.01356909898074634</v>
       </c>
       <c r="E4">
-        <v>-0.03045213386272149</v>
+        <v>-0.03840012675324757</v>
       </c>
       <c r="F4">
-        <v>0.07357125949578981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07790788929261702</v>
+      </c>
+      <c r="G4">
+        <v>-0.02515352551155551</v>
+      </c>
+      <c r="H4">
+        <v>0.04795858216436342</v>
+      </c>
+      <c r="I4">
+        <v>-0.06069756746429108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02643114641757523</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0117264937852066</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.003623281326323525</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.006118357967460797</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.006603007035777092</v>
+      </c>
+      <c r="G6">
+        <v>0.02218706663126931</v>
+      </c>
+      <c r="H6">
+        <v>-0.0165764457813373</v>
+      </c>
+      <c r="I6">
+        <v>-0.006216210618302432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04175138714881128</v>
+        <v>0.03375522686112706</v>
       </c>
       <c r="C7">
-        <v>0.003784937108745259</v>
+        <v>0.01997129968644188</v>
       </c>
       <c r="D7">
-        <v>-0.0459519225632035</v>
+        <v>-0.03478356765140761</v>
       </c>
       <c r="E7">
-        <v>0.00486986656453321</v>
+        <v>-0.0271361207114886</v>
       </c>
       <c r="F7">
-        <v>0.07842842538501514</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.05154906000174671</v>
+      </c>
+      <c r="G7">
+        <v>-0.04946980999009882</v>
+      </c>
+      <c r="H7">
+        <v>0.003043883220979286</v>
+      </c>
+      <c r="I7">
+        <v>-0.03267829716728485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.05469246159638578</v>
+        <v>0.02527445830803883</v>
       </c>
       <c r="C8">
-        <v>-0.03725210242985813</v>
+        <v>0.05339011085576265</v>
       </c>
       <c r="D8">
-        <v>-0.0501881778026317</v>
+        <v>-0.01028143290817654</v>
       </c>
       <c r="E8">
-        <v>-0.02803306577225977</v>
+        <v>-0.0157839281484213</v>
       </c>
       <c r="F8">
-        <v>0.07107464703269796</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.07360955703403294</v>
+      </c>
+      <c r="G8">
+        <v>-0.04828894624445721</v>
+      </c>
+      <c r="H8">
+        <v>0.04103824635466458</v>
+      </c>
+      <c r="I8">
+        <v>-0.06103959313016294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.07668382680744844</v>
+        <v>0.05836878739786766</v>
       </c>
       <c r="C9">
-        <v>-0.003280469450099373</v>
+        <v>0.0433300034285713</v>
       </c>
       <c r="D9">
-        <v>-0.06094497367521383</v>
+        <v>-0.01612295361988415</v>
       </c>
       <c r="E9">
-        <v>-0.04413071189757137</v>
+        <v>-0.03403120216106617</v>
       </c>
       <c r="F9">
-        <v>0.05980393364940291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.0790287939299928</v>
+      </c>
+      <c r="G9">
+        <v>-0.02032234663463403</v>
+      </c>
+      <c r="H9">
+        <v>0.04589350968861144</v>
+      </c>
+      <c r="I9">
+        <v>-0.03716233858367166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.0353577411789902</v>
+        <v>0.04293810561054563</v>
       </c>
       <c r="C10">
-        <v>0.1122406709784454</v>
+        <v>-0.1645226390620964</v>
       </c>
       <c r="D10">
-        <v>0.1129941753956999</v>
+        <v>0.008743852527576786</v>
       </c>
       <c r="E10">
-        <v>0.04250396812371623</v>
+        <v>0.02390718693445945</v>
       </c>
       <c r="F10">
-        <v>0.07094317225099683</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.0634108220983101</v>
+      </c>
+      <c r="G10">
+        <v>-0.02713790796776217</v>
+      </c>
+      <c r="H10">
+        <v>0.03867609447827265</v>
+      </c>
+      <c r="I10">
+        <v>-0.03679949092425191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05631760237443059</v>
+        <v>0.0470600829892158</v>
       </c>
       <c r="C11">
-        <v>-0.01028027673758199</v>
+        <v>0.03350743212979294</v>
       </c>
       <c r="D11">
-        <v>-0.01972061927834378</v>
+        <v>0.00665688245725907</v>
       </c>
       <c r="E11">
-        <v>0.004943975114367843</v>
+        <v>-0.007620306386768938</v>
       </c>
       <c r="F11">
-        <v>0.0490407995422992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03802445248584008</v>
+      </c>
+      <c r="G11">
+        <v>-0.0003591187859604954</v>
+      </c>
+      <c r="H11">
+        <v>0.01437971007641847</v>
+      </c>
+      <c r="I11">
+        <v>-0.03643573946078407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.0449949102882483</v>
+        <v>0.04234487590281735</v>
       </c>
       <c r="C12">
-        <v>-0.01311383105487876</v>
+        <v>0.03198777972531677</v>
       </c>
       <c r="D12">
-        <v>-0.0185620908147023</v>
+        <v>-0.005717741965467376</v>
       </c>
       <c r="E12">
-        <v>-0.0121505516825268</v>
+        <v>-0.008228437520096055</v>
       </c>
       <c r="F12">
-        <v>0.03630040601341716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01399290714947893</v>
+      </c>
+      <c r="G12">
+        <v>-0.004577154650275273</v>
+      </c>
+      <c r="H12">
+        <v>0.006000519924021326</v>
+      </c>
+      <c r="I12">
+        <v>-0.02314805785969896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.05653674560073564</v>
+        <v>0.04057992921071983</v>
       </c>
       <c r="C13">
-        <v>-0.01277551809227966</v>
+        <v>0.02732657558040606</v>
       </c>
       <c r="D13">
-        <v>-0.03068757011934718</v>
+        <v>0.01591947183191465</v>
       </c>
       <c r="E13">
-        <v>0.03003459669017402</v>
+        <v>-0.007936255800165883</v>
       </c>
       <c r="F13">
-        <v>0.1122935298297377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.09675991960227981</v>
+      </c>
+      <c r="G13">
+        <v>-0.03634352525286683</v>
+      </c>
+      <c r="H13">
+        <v>0.03619646434233272</v>
+      </c>
+      <c r="I13">
+        <v>-0.07142396373314952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03202178515410988</v>
+        <v>0.0248027713207433</v>
       </c>
       <c r="C14">
-        <v>-0.00345857655928295</v>
+        <v>0.02380302468403257</v>
       </c>
       <c r="D14">
-        <v>-0.0439051373611986</v>
+        <v>-0.004927029955937025</v>
       </c>
       <c r="E14">
-        <v>-0.004133637553988505</v>
+        <v>-0.02783978730967187</v>
       </c>
       <c r="F14">
-        <v>0.03139263125659921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03807551712795492</v>
+      </c>
+      <c r="G14">
+        <v>-0.05447989674861518</v>
+      </c>
+      <c r="H14">
+        <v>0.01894480900941404</v>
+      </c>
+      <c r="I14">
+        <v>-0.01346754713841439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04783385054578677</v>
+        <v>0.04088261464409399</v>
       </c>
       <c r="C16">
-        <v>-0.01824046905117615</v>
+        <v>0.03554482979383463</v>
       </c>
       <c r="D16">
-        <v>-0.0179803689080449</v>
+        <v>0.0009480686656264904</v>
       </c>
       <c r="E16">
-        <v>-0.0003762958381096856</v>
+        <v>-0.005059945853424415</v>
       </c>
       <c r="F16">
-        <v>0.03976779825016036</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03373586515246212</v>
+      </c>
+      <c r="G16">
+        <v>-0.006859598903337787</v>
+      </c>
+      <c r="H16">
+        <v>0.008647678941352197</v>
+      </c>
+      <c r="I16">
+        <v>-0.03700061108979448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06682857690376606</v>
+        <v>0.05307879289949456</v>
       </c>
       <c r="C19">
-        <v>-0.03431333928613854</v>
+        <v>0.0482530154373761</v>
       </c>
       <c r="D19">
-        <v>-0.04099407845021402</v>
+        <v>0.004737129690177143</v>
       </c>
       <c r="E19">
-        <v>0.0001515869382587652</v>
+        <v>-0.01391243551642622</v>
       </c>
       <c r="F19">
-        <v>0.09918129816140486</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.09578362705099262</v>
+      </c>
+      <c r="G19">
+        <v>-0.05312789973795623</v>
+      </c>
+      <c r="H19">
+        <v>0.0295121943546635</v>
+      </c>
+      <c r="I19">
+        <v>-0.07223858031213065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03177242542186123</v>
+        <v>0.01902563324475812</v>
       </c>
       <c r="C20">
-        <v>-0.01049513933482305</v>
+        <v>0.02954353386153217</v>
       </c>
       <c r="D20">
-        <v>-0.0512461534416984</v>
+        <v>-0.003943480244739841</v>
       </c>
       <c r="E20">
-        <v>-0.01887374763947927</v>
+        <v>-0.02029052404051048</v>
       </c>
       <c r="F20">
-        <v>0.07081268405054837</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06188612081381975</v>
+      </c>
+      <c r="G20">
+        <v>-0.06737857540473426</v>
+      </c>
+      <c r="H20">
+        <v>0.01650782506533803</v>
+      </c>
+      <c r="I20">
+        <v>-0.06630499478232182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03363341031803787</v>
+        <v>0.0334103084195824</v>
       </c>
       <c r="C21">
-        <v>-0.02791292978226233</v>
+        <v>0.02827484577428421</v>
       </c>
       <c r="D21">
-        <v>-0.02998274629414446</v>
+        <v>-0.01029335317159635</v>
       </c>
       <c r="E21">
-        <v>0.00598586516510427</v>
+        <v>-0.004162653817261863</v>
       </c>
       <c r="F21">
-        <v>0.09874339511802163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.07467623394544851</v>
+      </c>
+      <c r="G21">
+        <v>-0.009792986154034164</v>
+      </c>
+      <c r="H21">
+        <v>0.05165050609956509</v>
+      </c>
+      <c r="I21">
+        <v>-0.008967898256598109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.04737656988672297</v>
+        <v>0.03951278801914324</v>
       </c>
       <c r="C24">
-        <v>-0.01268537948794785</v>
+        <v>0.03138112268560814</v>
       </c>
       <c r="D24">
-        <v>-0.02231818564647863</v>
+        <v>0.0004533954723367413</v>
       </c>
       <c r="E24">
-        <v>-0.004015607369851556</v>
+        <v>-0.007911928378156763</v>
       </c>
       <c r="F24">
-        <v>0.0505937985352955</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03653602285259893</v>
+      </c>
+      <c r="G24">
+        <v>-0.003200333774963671</v>
+      </c>
+      <c r="H24">
+        <v>0.009288460256069865</v>
+      </c>
+      <c r="I24">
+        <v>-0.03968523127476568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.04946668091502712</v>
+        <v>0.04705276810693006</v>
       </c>
       <c r="C25">
-        <v>-0.01006862777739021</v>
+        <v>0.02719383342017282</v>
       </c>
       <c r="D25">
-        <v>-0.0186299932527795</v>
+        <v>0.001880648520363216</v>
       </c>
       <c r="E25">
-        <v>-0.002262913988794263</v>
+        <v>-0.008071045713435442</v>
       </c>
       <c r="F25">
-        <v>0.04704822318282181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04443059807719509</v>
+      </c>
+      <c r="G25">
+        <v>0.004701383962779916</v>
+      </c>
+      <c r="H25">
+        <v>0.01408153000493486</v>
+      </c>
+      <c r="I25">
+        <v>-0.03216840318103308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.0278853553980259</v>
+        <v>0.01481086744923989</v>
       </c>
       <c r="C26">
-        <v>-0.02448296246370848</v>
+        <v>0.03138539490686002</v>
       </c>
       <c r="D26">
-        <v>-0.03625841101183249</v>
+        <v>0.005383600607791271</v>
       </c>
       <c r="E26">
-        <v>0.02005650764659283</v>
+        <v>-0.0005017034945860826</v>
       </c>
       <c r="F26">
-        <v>0.0413104777115874</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04592090341418199</v>
+      </c>
+      <c r="G26">
+        <v>-0.03205297694113086</v>
+      </c>
+      <c r="H26">
+        <v>0.01330248881645836</v>
+      </c>
+      <c r="I26">
+        <v>-0.03389932231369313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1182652380195295</v>
+        <v>0.06909312818414837</v>
       </c>
       <c r="C27">
-        <v>0.004966586134610973</v>
+        <v>0.02590048580396065</v>
       </c>
       <c r="D27">
-        <v>-0.04673241244086628</v>
+        <v>-0.002979378489167898</v>
       </c>
       <c r="E27">
-        <v>-0.02687140782271432</v>
+        <v>-0.0288008950425624</v>
       </c>
       <c r="F27">
-        <v>0.0630572597788457</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.05212806593609347</v>
+      </c>
+      <c r="G27">
+        <v>-0.03382871055995724</v>
+      </c>
+      <c r="H27">
+        <v>0.02773477629109267</v>
+      </c>
+      <c r="I27">
+        <v>-0.02595884113517704</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.03823330861857557</v>
+        <v>0.0589306655168193</v>
       </c>
       <c r="C28">
-        <v>0.1664157236137921</v>
+        <v>-0.2506859304428631</v>
       </c>
       <c r="D28">
-        <v>0.1844875134677844</v>
+        <v>0.003775075057295387</v>
       </c>
       <c r="E28">
-        <v>0.04443483753893712</v>
+        <v>0.03700702771886424</v>
       </c>
       <c r="F28">
-        <v>0.04185234182181601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04863890215096545</v>
+      </c>
+      <c r="G28">
+        <v>-0.05071784677631444</v>
+      </c>
+      <c r="H28">
+        <v>0.04160047631602157</v>
+      </c>
+      <c r="I28">
+        <v>-0.05773768068968697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.03069042200717343</v>
+        <v>0.02318943004446783</v>
       </c>
       <c r="C29">
-        <v>-0.004726542992606051</v>
+        <v>0.02332499199872122</v>
       </c>
       <c r="D29">
-        <v>-0.04277862798062747</v>
+        <v>-0.008426122661090154</v>
       </c>
       <c r="E29">
-        <v>-0.0168922066476218</v>
+        <v>-0.02939897150252327</v>
       </c>
       <c r="F29">
-        <v>0.02576068588539699</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03442164355771453</v>
+      </c>
+      <c r="G29">
+        <v>-0.05319743809967609</v>
+      </c>
+      <c r="H29">
+        <v>0.02433382572388526</v>
+      </c>
+      <c r="I29">
+        <v>0.004529023104567048</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1113501583297187</v>
+        <v>0.08868697601650792</v>
       </c>
       <c r="C30">
-        <v>0.005437951509080023</v>
+        <v>0.05246300843922837</v>
       </c>
       <c r="D30">
-        <v>-0.05681890649931766</v>
+        <v>0.04037955596709553</v>
       </c>
       <c r="E30">
-        <v>0.002110422468451001</v>
+        <v>-0.03309887871329916</v>
       </c>
       <c r="F30">
-        <v>0.1061973431189187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1020764709456538</v>
+      </c>
+      <c r="G30">
+        <v>-0.009834108895275957</v>
+      </c>
+      <c r="H30">
+        <v>-0.0025375265184101</v>
+      </c>
+      <c r="I30">
+        <v>-0.0241222065781984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06640661211583662</v>
+        <v>0.05993460404394636</v>
       </c>
       <c r="C31">
-        <v>-0.004375459114184187</v>
+        <v>0.02483479684539938</v>
       </c>
       <c r="D31">
-        <v>-0.03728022605828107</v>
+        <v>0.009142865865613171</v>
       </c>
       <c r="E31">
-        <v>0.03211363983290076</v>
+        <v>-0.02268425653443258</v>
       </c>
       <c r="F31">
-        <v>-0.02460504218547454</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.002450196753665984</v>
+      </c>
+      <c r="G31">
+        <v>-0.04309512572671519</v>
+      </c>
+      <c r="H31">
+        <v>0.04460267058141525</v>
+      </c>
+      <c r="I31">
+        <v>-0.01058345464105543</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.06702206074522338</v>
+        <v>0.03950643883255357</v>
       </c>
       <c r="C32">
-        <v>-0.02159960973436319</v>
+        <v>0.04513500758742258</v>
       </c>
       <c r="D32">
-        <v>-0.04618838365272129</v>
+        <v>-0.01478095925005203</v>
       </c>
       <c r="E32">
-        <v>-0.01402639245685039</v>
+        <v>-0.03207695528406941</v>
       </c>
       <c r="F32">
-        <v>0.09838760672833527</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08109962688754725</v>
+      </c>
+      <c r="G32">
+        <v>-0.03403807459718998</v>
+      </c>
+      <c r="H32">
+        <v>0.03193845492915273</v>
+      </c>
+      <c r="I32">
+        <v>-0.0582381748629324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06619418140419586</v>
+        <v>0.05261285824308958</v>
       </c>
       <c r="C33">
-        <v>-0.03641492115082011</v>
+        <v>0.05617828265843557</v>
       </c>
       <c r="D33">
-        <v>-0.06043609553275731</v>
+        <v>0.02061317603746486</v>
       </c>
       <c r="E33">
-        <v>0.009651689921391796</v>
+        <v>-0.005217262166266627</v>
       </c>
       <c r="F33">
-        <v>0.0704772155003807</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07358402715695943</v>
+      </c>
+      <c r="G33">
+        <v>-0.04104094727213027</v>
+      </c>
+      <c r="H33">
+        <v>0.04065549932846575</v>
+      </c>
+      <c r="I33">
+        <v>-0.03531559191253009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04722994090569441</v>
+        <v>0.04105990502505296</v>
       </c>
       <c r="C34">
-        <v>-0.01005632755549784</v>
+        <v>0.03624490932620288</v>
       </c>
       <c r="D34">
-        <v>-0.02699845722681881</v>
+        <v>-0.004348306422067495</v>
       </c>
       <c r="E34">
-        <v>-0.004565595085802711</v>
+        <v>-0.01584143877456565</v>
       </c>
       <c r="F34">
-        <v>0.03967291127461474</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.0354292166654348</v>
+      </c>
+      <c r="G34">
+        <v>-0.00126677221234333</v>
+      </c>
+      <c r="H34">
+        <v>0.01064959298608521</v>
+      </c>
+      <c r="I34">
+        <v>-0.03508898909987737</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01981055624610087</v>
+        <v>0.01670910433420581</v>
       </c>
       <c r="C36">
-        <v>0.002458651047723524</v>
+        <v>0.006499422503927639</v>
       </c>
       <c r="D36">
-        <v>-0.01474868317015626</v>
+        <v>-0.003058431202726646</v>
       </c>
       <c r="E36">
-        <v>-0.003559681625572204</v>
+        <v>-0.01055162384470369</v>
       </c>
       <c r="F36">
-        <v>0.02323096918840102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02686429483187611</v>
+      </c>
+      <c r="G36">
+        <v>-0.03035959239714436</v>
+      </c>
+      <c r="H36">
+        <v>0.02677403918884582</v>
+      </c>
+      <c r="I36">
+        <v>0.01177172173517931</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.04191072129736503</v>
+        <v>0.03436396544598797</v>
       </c>
       <c r="C38">
-        <v>-0.003680279303843642</v>
+        <v>0.016617605515968</v>
       </c>
       <c r="D38">
-        <v>-0.02009429138177631</v>
+        <v>-0.003614293994792981</v>
       </c>
       <c r="E38">
-        <v>-0.01765682664924209</v>
+        <v>-0.007271649576852721</v>
       </c>
       <c r="F38">
-        <v>0.02816283848600533</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.05096909976682664</v>
+      </c>
+      <c r="G38">
+        <v>-0.0164711511396321</v>
+      </c>
+      <c r="H38">
+        <v>0.03264001386300588</v>
+      </c>
+      <c r="I38">
+        <v>0.0029533736722498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.0691642752639854</v>
+        <v>0.05231588337668867</v>
       </c>
       <c r="C39">
-        <v>-0.009661209939525841</v>
+        <v>0.04956499968053129</v>
       </c>
       <c r="D39">
-        <v>-0.02873819478708212</v>
+        <v>0.006539740002127778</v>
       </c>
       <c r="E39">
-        <v>0.01276808126254273</v>
+        <v>-0.01695163315574737</v>
       </c>
       <c r="F39">
-        <v>0.0405176103794455</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05518520615737481</v>
+      </c>
+      <c r="G39">
+        <v>0.01083728231840695</v>
+      </c>
+      <c r="H39">
+        <v>0.02405544173562156</v>
+      </c>
+      <c r="I39">
+        <v>-0.01880105644700073</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07302755624538945</v>
+        <v>0.05505805434961203</v>
       </c>
       <c r="C40">
-        <v>0.003716108632068953</v>
+        <v>0.04372320290735513</v>
       </c>
       <c r="D40">
-        <v>-0.06054375983475657</v>
+        <v>0.02321582376931534</v>
       </c>
       <c r="E40">
-        <v>0.0346111714399551</v>
+        <v>-0.02356280584605407</v>
       </c>
       <c r="F40">
-        <v>0.1073418850697902</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.08871915406568433</v>
+      </c>
+      <c r="G40">
+        <v>-0.03963102059028106</v>
+      </c>
+      <c r="H40">
+        <v>0.03737705061686718</v>
+      </c>
+      <c r="I40">
+        <v>-0.1125412735083157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.002479078079901454</v>
+        <v>0.004534251276564776</v>
       </c>
       <c r="C41">
-        <v>-0.01143798748876059</v>
+        <v>0.01166251505162368</v>
       </c>
       <c r="D41">
-        <v>-0.0362473863897945</v>
+        <v>0.001322979398492793</v>
       </c>
       <c r="E41">
-        <v>-0.003710971567351296</v>
+        <v>-0.01138203684871109</v>
       </c>
       <c r="F41">
-        <v>-0.002353426329819932</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.01106683243557458</v>
+      </c>
+      <c r="G41">
+        <v>-0.04455595858721344</v>
+      </c>
+      <c r="H41">
+        <v>0.04199287942419032</v>
+      </c>
+      <c r="I41">
+        <v>-0.002801248241986394</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1823117023015422</v>
+        <v>0.2024273412286239</v>
       </c>
       <c r="C42">
-        <v>-0.7681817610759254</v>
+        <v>0.214046781552528</v>
       </c>
       <c r="D42">
-        <v>0.5303243749740867</v>
+        <v>0.03806354541828656</v>
       </c>
       <c r="E42">
-        <v>0.2147450725268966</v>
+        <v>0.9236208460095438</v>
       </c>
       <c r="F42">
-        <v>-0.0679222409660972</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1667775837411088</v>
+      </c>
+      <c r="G42">
+        <v>-0.006545191091818189</v>
+      </c>
+      <c r="H42">
+        <v>-0.001618213734664219</v>
+      </c>
+      <c r="I42">
+        <v>-0.04164105690916777</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.006287809551688502</v>
+        <v>0.008479029348741726</v>
       </c>
       <c r="C43">
-        <v>-0.0145131843806098</v>
+        <v>0.01424381020803028</v>
       </c>
       <c r="D43">
-        <v>-0.0377871830997259</v>
+        <v>0.003869379566070355</v>
       </c>
       <c r="E43">
-        <v>-0.0005922131844901803</v>
+        <v>-0.009569245877834072</v>
       </c>
       <c r="F43">
-        <v>0.02579140789194709</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.02245598076750458</v>
+      </c>
+      <c r="G43">
+        <v>-0.03795431995141054</v>
+      </c>
+      <c r="H43">
+        <v>0.02479600570512638</v>
+      </c>
+      <c r="I43">
+        <v>-0.01245912740901414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04320646151110011</v>
+        <v>0.02741085318200728</v>
       </c>
       <c r="C44">
-        <v>-0.02602515903752269</v>
+        <v>0.04172154690656189</v>
       </c>
       <c r="D44">
-        <v>-0.05675320523185381</v>
+        <v>-4.900862911685953e-05</v>
       </c>
       <c r="E44">
-        <v>0.003350490898340274</v>
+        <v>-0.0121557368277399</v>
       </c>
       <c r="F44">
-        <v>0.122566147224118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1202690973587116</v>
+      </c>
+      <c r="G44">
+        <v>-0.08695424144910327</v>
+      </c>
+      <c r="H44">
+        <v>0.06126232333015703</v>
+      </c>
+      <c r="I44">
+        <v>-0.04432768143245984</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03605065795692393</v>
+        <v>0.0271544266644218</v>
       </c>
       <c r="C46">
-        <v>-0.01124526388014653</v>
+        <v>0.03894008713663987</v>
       </c>
       <c r="D46">
-        <v>-0.0465552473924048</v>
+        <v>0.005123320840272822</v>
       </c>
       <c r="E46">
-        <v>0.0002454262027410972</v>
+        <v>-0.02964582726559264</v>
       </c>
       <c r="F46">
-        <v>0.01935422187716881</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.046624507001261</v>
+      </c>
+      <c r="G46">
+        <v>-0.05409550089215913</v>
+      </c>
+      <c r="H46">
+        <v>0.02574414450754249</v>
+      </c>
+      <c r="I46">
+        <v>-0.003342627713423501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09303234709970752</v>
+        <v>0.08636169258985231</v>
       </c>
       <c r="C47">
-        <v>-0.0006185523722099128</v>
+        <v>0.02554109259490173</v>
       </c>
       <c r="D47">
-        <v>-0.03757756803966223</v>
+        <v>0.004025772114303287</v>
       </c>
       <c r="E47">
-        <v>-0.003160319557876881</v>
+        <v>-0.02639584191904434</v>
       </c>
       <c r="F47">
-        <v>-0.01813132606120011</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01828333435909791</v>
+      </c>
+      <c r="G47">
+        <v>-0.06697344129319201</v>
+      </c>
+      <c r="H47">
+        <v>0.03687207945829031</v>
+      </c>
+      <c r="I47">
+        <v>-0.02067926294512239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02133960806606953</v>
+        <v>0.02146181704761293</v>
       </c>
       <c r="C48">
-        <v>-0.007338039069757054</v>
+        <v>0.01912292829280243</v>
       </c>
       <c r="D48">
-        <v>-0.03293309439811229</v>
+        <v>-7.931548879529072e-05</v>
       </c>
       <c r="E48">
-        <v>-0.0003716259648487968</v>
+        <v>-0.01407387554587771</v>
       </c>
       <c r="F48">
-        <v>0.02838960038281289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02760626186259769</v>
+      </c>
+      <c r="G48">
+        <v>-0.02231924191743785</v>
+      </c>
+      <c r="H48">
+        <v>0.01949793763020084</v>
+      </c>
+      <c r="I48">
+        <v>-0.008308865277926233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09105597369858737</v>
+        <v>0.08673014429058667</v>
       </c>
       <c r="C50">
-        <v>-0.01581628649556246</v>
+        <v>0.04518520059094205</v>
       </c>
       <c r="D50">
-        <v>-0.04567112132320436</v>
+        <v>-0.009810914774230921</v>
       </c>
       <c r="E50">
-        <v>0.008056097349063686</v>
+        <v>-0.02197403680998549</v>
       </c>
       <c r="F50">
-        <v>-0.02538153560973559</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01202219058734045</v>
+      </c>
+      <c r="G50">
+        <v>-0.04311695480951291</v>
+      </c>
+      <c r="H50">
+        <v>-0.00435606596477931</v>
+      </c>
+      <c r="I50">
+        <v>0.009082916190061191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05611385299322318</v>
+        <v>0.03929292453553498</v>
       </c>
       <c r="C51">
-        <v>0.01412755386797926</v>
+        <v>-0.00521643498274189</v>
       </c>
       <c r="D51">
-        <v>-0.01361354334701251</v>
+        <v>0.01251244396554719</v>
       </c>
       <c r="E51">
-        <v>0.03880086380742555</v>
+        <v>-0.01082566839369655</v>
       </c>
       <c r="F51">
-        <v>0.05306479097491139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.08135103002954651</v>
+      </c>
+      <c r="G51">
+        <v>-0.06341402672818802</v>
+      </c>
+      <c r="H51">
+        <v>0.05935473417477459</v>
+      </c>
+      <c r="I51">
+        <v>-0.02831469051424604</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1338887926879708</v>
+        <v>0.1228023196116111</v>
       </c>
       <c r="C53">
-        <v>0.007316319742696476</v>
+        <v>0.0449622208817063</v>
       </c>
       <c r="D53">
-        <v>-0.06180885213817542</v>
+        <v>0.00497046574277244</v>
       </c>
       <c r="E53">
-        <v>0.007435250491041222</v>
+        <v>-0.05003140245868919</v>
       </c>
       <c r="F53">
-        <v>-0.06715346387645603</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05592698858680192</v>
+      </c>
+      <c r="G53">
+        <v>-0.0297259367511861</v>
+      </c>
+      <c r="H53">
+        <v>0.02629436864884502</v>
+      </c>
+      <c r="I53">
+        <v>-0.03011401554166536</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.0275671979541289</v>
+        <v>0.02677275414016137</v>
       </c>
       <c r="C54">
-        <v>0.008269369491773277</v>
+        <v>0.009383268266340035</v>
       </c>
       <c r="D54">
-        <v>-0.0336613414602971</v>
+        <v>-0.003716586995232085</v>
       </c>
       <c r="E54">
-        <v>-0.007312136397307326</v>
+        <v>-0.03020986270712865</v>
       </c>
       <c r="F54">
-        <v>0.03755264409303696</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03433873828093166</v>
+      </c>
+      <c r="G54">
+        <v>-0.05148098603671247</v>
+      </c>
+      <c r="H54">
+        <v>0.03521919592564268</v>
+      </c>
+      <c r="I54">
+        <v>0.006225710233211369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1078498134461435</v>
+        <v>0.09744247988995486</v>
       </c>
       <c r="C55">
-        <v>0.01054660853789329</v>
+        <v>0.03698992374174199</v>
       </c>
       <c r="D55">
-        <v>-0.02566518306490206</v>
+        <v>-0.01260617448079923</v>
       </c>
       <c r="E55">
-        <v>-0.03781947226621526</v>
+        <v>-0.03529890406957419</v>
       </c>
       <c r="F55">
-        <v>-0.03095481544081719</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04346232019996846</v>
+      </c>
+      <c r="G55">
+        <v>-0.0432789927996642</v>
+      </c>
+      <c r="H55">
+        <v>-0.008187536928268079</v>
+      </c>
+      <c r="I55">
+        <v>-0.00431837189718954</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1711296301292757</v>
+        <v>0.1638334560677548</v>
       </c>
       <c r="C56">
-        <v>0.05816691264681447</v>
+        <v>0.03324159974463424</v>
       </c>
       <c r="D56">
-        <v>-0.0630678014808547</v>
+        <v>0.001232849089570572</v>
       </c>
       <c r="E56">
-        <v>-0.02047617217907352</v>
+        <v>-0.08458987299609441</v>
       </c>
       <c r="F56">
-        <v>-0.1071008173364681</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09931365724000597</v>
+      </c>
+      <c r="G56">
+        <v>0.006666733991587218</v>
+      </c>
+      <c r="H56">
+        <v>-0.02011722267044117</v>
+      </c>
+      <c r="I56">
+        <v>-0.03624033228024954</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.07554825224948758</v>
+        <v>0.0609834845316782</v>
       </c>
       <c r="C57">
-        <v>-0.01004579475185114</v>
+        <v>0.02895126314841566</v>
       </c>
       <c r="D57">
-        <v>-0.04045817890992496</v>
+        <v>0.01960420518807891</v>
       </c>
       <c r="E57">
-        <v>0.02810935377164757</v>
+        <v>-0.004479106003515314</v>
       </c>
       <c r="F57">
-        <v>0.06285793232436956</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.06399015946898023</v>
+      </c>
+      <c r="G57">
+        <v>-0.0232499367229418</v>
+      </c>
+      <c r="H57">
+        <v>0.01972615380211413</v>
+      </c>
+      <c r="I57">
+        <v>-0.02889482593834146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.2008384547309008</v>
+        <v>0.2043340645224272</v>
       </c>
       <c r="C58">
-        <v>-0.04084957739439725</v>
+        <v>0.1161892051709688</v>
       </c>
       <c r="D58">
-        <v>-0.07371573972497197</v>
+        <v>0.09780118484685166</v>
       </c>
       <c r="E58">
-        <v>0.04288875056237131</v>
+        <v>0.03702855503139738</v>
       </c>
       <c r="F58">
-        <v>0.2209883551368556</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.3578581809677657</v>
+      </c>
+      <c r="G58">
+        <v>-0.2858840163853227</v>
+      </c>
+      <c r="H58">
+        <v>-0.2960231031460638</v>
+      </c>
+      <c r="I58">
+        <v>0.7413192968608797</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.03572425253440866</v>
+        <v>0.0587864338450925</v>
       </c>
       <c r="C59">
-        <v>0.1534423236521804</v>
+        <v>-0.2062306442146066</v>
       </c>
       <c r="D59">
-        <v>0.1277020406099884</v>
+        <v>0.02042877933478108</v>
       </c>
       <c r="E59">
-        <v>0.03415799312458383</v>
+        <v>0.007586454692862588</v>
       </c>
       <c r="F59">
-        <v>0.0465190564042394</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.06213052223475393</v>
+      </c>
+      <c r="G59">
+        <v>-0.0006111227990804589</v>
+      </c>
+      <c r="H59">
+        <v>0.01096340117938542</v>
+      </c>
+      <c r="I59">
+        <v>-0.01184800726044981</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1839718579277848</v>
+        <v>0.1975494360449546</v>
       </c>
       <c r="C60">
-        <v>0.06555748433387794</v>
+        <v>-0.05398850918960546</v>
       </c>
       <c r="D60">
-        <v>0.02295034163615538</v>
+        <v>0.0569721035874327</v>
       </c>
       <c r="E60">
-        <v>0.08038837099554641</v>
+        <v>-0.01408583188539717</v>
       </c>
       <c r="F60">
-        <v>0.1307496679740286</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1745448060177472</v>
+      </c>
+      <c r="G60">
+        <v>0.3514908160632257</v>
+      </c>
+      <c r="H60">
+        <v>-0.02122774202105805</v>
+      </c>
+      <c r="I60">
+        <v>-0.05691415774936973</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03876467109508591</v>
+        <v>0.03859716316184485</v>
       </c>
       <c r="C61">
-        <v>-0.008017859569819106</v>
+        <v>0.03323064932800626</v>
       </c>
       <c r="D61">
-        <v>-0.01519557354345292</v>
+        <v>4.178095398263974e-05</v>
       </c>
       <c r="E61">
-        <v>-0.00372836399995075</v>
+        <v>-0.01089264111455234</v>
       </c>
       <c r="F61">
-        <v>0.04438817666201445</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.0391035424269578</v>
+      </c>
+      <c r="G61">
+        <v>0.0174694631500771</v>
+      </c>
+      <c r="H61">
+        <v>0.01147458489806059</v>
+      </c>
+      <c r="I61">
+        <v>-0.009111661885166203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.03757353910280173</v>
+        <v>0.02939668617724478</v>
       </c>
       <c r="C63">
-        <v>-0.001473849910936422</v>
+        <v>0.0243079303413181</v>
       </c>
       <c r="D63">
-        <v>-0.0299054378525374</v>
+        <v>0.00155920969714125</v>
       </c>
       <c r="E63">
-        <v>0.003820772768761797</v>
+        <v>-0.01692859552392285</v>
       </c>
       <c r="F63">
-        <v>0.05266129320754081</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.03367643386566946</v>
+      </c>
+      <c r="G63">
+        <v>-0.04890756902794607</v>
+      </c>
+      <c r="H63">
+        <v>0.009186098303907134</v>
+      </c>
+      <c r="I63">
+        <v>-0.02759600915187565</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.0587419448155414</v>
+        <v>0.05591060539904887</v>
       </c>
       <c r="C64">
-        <v>-0.01449261583446331</v>
+        <v>0.03710351375943861</v>
       </c>
       <c r="D64">
-        <v>-0.03936278546966708</v>
+        <v>-0.009603054862169844</v>
       </c>
       <c r="E64">
-        <v>-0.03148376099165085</v>
+        <v>-0.01879825968023257</v>
       </c>
       <c r="F64">
-        <v>0.04224493584801294</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.04017708239604752</v>
+      </c>
+      <c r="G64">
+        <v>-0.02239875777442506</v>
+      </c>
+      <c r="H64">
+        <v>0.06299493142897461</v>
+      </c>
+      <c r="I64">
+        <v>-0.03912926339875664</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02922654200834456</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01181737060006681</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.003957029473718622</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006689032308833978</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.002914215216656535</v>
+      </c>
+      <c r="G65">
+        <v>0.0265313178891255</v>
+      </c>
+      <c r="H65">
+        <v>-0.01579432220711209</v>
+      </c>
+      <c r="I65">
+        <v>-0.006891519983427599</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.07443870092209959</v>
+        <v>0.06501461905103212</v>
       </c>
       <c r="C66">
-        <v>-0.006282321840809889</v>
+        <v>0.05974638083284869</v>
       </c>
       <c r="D66">
-        <v>-0.05886699457707509</v>
+        <v>0.01454171879392609</v>
       </c>
       <c r="E66">
-        <v>-0.002944577440329196</v>
+        <v>-0.04278792234028619</v>
       </c>
       <c r="F66">
-        <v>0.08121465353584054</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06754329695851455</v>
+      </c>
+      <c r="G66">
+        <v>0.0113615061497427</v>
+      </c>
+      <c r="H66">
+        <v>0.0100663843154794</v>
+      </c>
+      <c r="I66">
+        <v>-0.06309355760261885</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05105920842453884</v>
+        <v>0.04780269694028739</v>
       </c>
       <c r="C67">
-        <v>0.01126219145727366</v>
+        <v>-0.002027591687604473</v>
       </c>
       <c r="D67">
-        <v>0.001947030132151646</v>
+        <v>0.001814874142513661</v>
       </c>
       <c r="E67">
-        <v>-0.004353059132478458</v>
+        <v>-0.006534704260297043</v>
       </c>
       <c r="F67">
-        <v>0.02541962661576984</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03748401874778838</v>
+      </c>
+      <c r="G67">
+        <v>0.008964008007550629</v>
+      </c>
+      <c r="H67">
+        <v>0.0433782503707715</v>
+      </c>
+      <c r="I67">
+        <v>0.01299946187523042</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.05697656780443473</v>
+        <v>0.06739637296554617</v>
       </c>
       <c r="C68">
-        <v>0.1661185294373606</v>
+        <v>-0.2380100082401124</v>
       </c>
       <c r="D68">
-        <v>0.179148872909445</v>
+        <v>0.01546811212415202</v>
       </c>
       <c r="E68">
-        <v>0.03995376412632876</v>
+        <v>0.02754263037543113</v>
       </c>
       <c r="F68">
-        <v>0.0275878753425211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.0302822908517093</v>
+      </c>
+      <c r="G68">
+        <v>-0.04696674258926155</v>
+      </c>
+      <c r="H68">
+        <v>-0.008476371740267278</v>
+      </c>
+      <c r="I68">
+        <v>0.001142712731252604</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07593929843898126</v>
+        <v>0.06939608394745624</v>
       </c>
       <c r="C69">
-        <v>0.007688439255462622</v>
+        <v>0.02292355544020633</v>
       </c>
       <c r="D69">
-        <v>-0.02831555935446901</v>
+        <v>0.005893048589492583</v>
       </c>
       <c r="E69">
-        <v>0.00161525174703186</v>
+        <v>-0.02915019113582899</v>
       </c>
       <c r="F69">
-        <v>-0.007384531639037749</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.005667857189823463</v>
+      </c>
+      <c r="G69">
+        <v>-0.04167048557535769</v>
+      </c>
+      <c r="H69">
+        <v>0.02580724738861126</v>
+      </c>
+      <c r="I69">
+        <v>-0.01389890899432545</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.05327281811696558</v>
+        <v>0.06365327445278172</v>
       </c>
       <c r="C71">
-        <v>0.2075970047794607</v>
+        <v>-0.2654326685978585</v>
       </c>
       <c r="D71">
-        <v>0.2129038667004133</v>
+        <v>0.02033025177613245</v>
       </c>
       <c r="E71">
-        <v>0.08195276272105323</v>
+        <v>0.03922245954929272</v>
       </c>
       <c r="F71">
-        <v>0.06679587174154331</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.05811827278500659</v>
+      </c>
+      <c r="G71">
+        <v>-0.04284485089805548</v>
+      </c>
+      <c r="H71">
+        <v>0.01658992071283735</v>
+      </c>
+      <c r="I71">
+        <v>-0.02526253635189758</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1339893193584285</v>
+        <v>0.1377068004367495</v>
       </c>
       <c r="C72">
-        <v>0.04852414055271461</v>
+        <v>0.03870663556563743</v>
       </c>
       <c r="D72">
-        <v>-0.04203639336669892</v>
+        <v>0.01774201788556077</v>
       </c>
       <c r="E72">
-        <v>0.003367852788182265</v>
+        <v>-0.0750894481887433</v>
       </c>
       <c r="F72">
-        <v>0.07548189823998271</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.09136281960878477</v>
+      </c>
+      <c r="G72">
+        <v>0.1170980835375138</v>
+      </c>
+      <c r="H72">
+        <v>-0.02089131033142066</v>
+      </c>
+      <c r="I72">
+        <v>0.1427899386788423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2752093934539772</v>
+        <v>0.2774847282127397</v>
       </c>
       <c r="C73">
-        <v>0.1025626642529128</v>
+        <v>-0.07976543037653676</v>
       </c>
       <c r="D73">
-        <v>0.102088541154524</v>
+        <v>0.09688288500259579</v>
       </c>
       <c r="E73">
-        <v>0.1134547052845732</v>
+        <v>0.03468564966194929</v>
       </c>
       <c r="F73">
-        <v>0.2193173774391139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2515944012906767</v>
+      </c>
+      <c r="G73">
+        <v>0.5332353242538818</v>
+      </c>
+      <c r="H73">
+        <v>-0.09415789946262257</v>
+      </c>
+      <c r="I73">
+        <v>-0.02081274942948682</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.152770445259259</v>
+        <v>0.1482356461199585</v>
       </c>
       <c r="C74">
-        <v>0.007266538142429497</v>
+        <v>0.04475461494669395</v>
       </c>
       <c r="D74">
-        <v>-0.04135143868829028</v>
+        <v>0.009290317952309829</v>
       </c>
       <c r="E74">
-        <v>0.002317486141503261</v>
+        <v>-0.04717221717436982</v>
       </c>
       <c r="F74">
-        <v>-0.05380470150306185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.07755445230245442</v>
+      </c>
+      <c r="G74">
+        <v>0.005027750382712752</v>
+      </c>
+      <c r="H74">
+        <v>-0.01876035553822047</v>
+      </c>
+      <c r="I74">
+        <v>-0.08023548347623427</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2316498532307911</v>
+        <v>0.2501020419021092</v>
       </c>
       <c r="C75">
-        <v>0.04580899087638875</v>
+        <v>0.04294219018933457</v>
       </c>
       <c r="D75">
-        <v>-0.08139389344494632</v>
+        <v>0.02857975917278154</v>
       </c>
       <c r="E75">
-        <v>0.01657322782630561</v>
+        <v>-0.1106987464403519</v>
       </c>
       <c r="F75">
-        <v>-0.1489439238009474</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1539300821238108</v>
+      </c>
+      <c r="G75">
+        <v>-0.01022092287017204</v>
+      </c>
+      <c r="H75">
+        <v>0.007182733709150941</v>
+      </c>
+      <c r="I75">
+        <v>-0.01659430945748342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2559795552558681</v>
+        <v>0.2619936219639301</v>
       </c>
       <c r="C76">
-        <v>0.08177653343250735</v>
+        <v>0.03353395433168815</v>
       </c>
       <c r="D76">
-        <v>-0.06659058453380091</v>
+        <v>-0.01118882280520882</v>
       </c>
       <c r="E76">
-        <v>-0.05169318142236624</v>
+        <v>-0.1323543786800664</v>
       </c>
       <c r="F76">
-        <v>-0.1481637554929253</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1998374529729867</v>
+      </c>
+      <c r="G76">
+        <v>-0.02111648941342463</v>
+      </c>
+      <c r="H76">
+        <v>-0.07437953679671686</v>
+      </c>
+      <c r="I76">
+        <v>-0.02505209068313525</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1371806010362769</v>
+        <v>0.1153884690451515</v>
       </c>
       <c r="C77">
-        <v>-0.06691834261076572</v>
+        <v>0.07245883437551204</v>
       </c>
       <c r="D77">
-        <v>-0.02067167385267582</v>
+        <v>0.01026550105030441</v>
       </c>
       <c r="E77">
-        <v>0.01833983103187559</v>
+        <v>0.04794693864800668</v>
       </c>
       <c r="F77">
-        <v>0.1839138935296114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1663421002864729</v>
+      </c>
+      <c r="G77">
+        <v>-0.2352605567418868</v>
+      </c>
+      <c r="H77">
+        <v>0.0001730464843401751</v>
+      </c>
+      <c r="I77">
+        <v>-0.214693726118711</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.09038269574284376</v>
+        <v>0.06854697060558172</v>
       </c>
       <c r="C78">
-        <v>-0.05455368596121016</v>
+        <v>0.07060006122378272</v>
       </c>
       <c r="D78">
-        <v>-0.05368456888084788</v>
+        <v>-0.001001046775979434</v>
       </c>
       <c r="E78">
-        <v>-0.008288271737745769</v>
+        <v>-0.01048656082813841</v>
       </c>
       <c r="F78">
-        <v>0.04682802321305862</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.07332451829420476</v>
+      </c>
+      <c r="G78">
+        <v>-0.02087162458134346</v>
+      </c>
+      <c r="H78">
+        <v>0.02803951188595329</v>
+      </c>
+      <c r="I78">
+        <v>-0.03150998976150754</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1137927224032554</v>
+        <v>0.1428297815208287</v>
       </c>
       <c r="C80">
-        <v>-0.07094654353257814</v>
+        <v>-0.04225859274879697</v>
       </c>
       <c r="D80">
-        <v>0.2670552463621904</v>
+        <v>-0.9741007914177461</v>
       </c>
       <c r="E80">
-        <v>-0.9297936891250318</v>
+        <v>0.0410536255523294</v>
       </c>
       <c r="F80">
-        <v>0.05114158556930906</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.06537121632921385</v>
+      </c>
+      <c r="G80">
+        <v>0.06051613481143457</v>
+      </c>
+      <c r="H80">
+        <v>0.03209548478331339</v>
+      </c>
+      <c r="I80">
+        <v>0.08651193353287924</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1517168471163051</v>
+        <v>0.1792002352320574</v>
       </c>
       <c r="C81">
-        <v>0.04472541605282875</v>
+        <v>0.02159746121412942</v>
       </c>
       <c r="D81">
-        <v>-0.04550634725951395</v>
+        <v>0.004906649409547926</v>
       </c>
       <c r="E81">
-        <v>-0.01094837123247344</v>
+        <v>-0.08946589992807435</v>
       </c>
       <c r="F81">
-        <v>-0.1749962279402087</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1601727258902363</v>
+      </c>
+      <c r="G81">
+        <v>-0.03168361810814983</v>
+      </c>
+      <c r="H81">
+        <v>-0.03482264920622576</v>
+      </c>
+      <c r="I81">
+        <v>0.01308725737538643</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.07961984867990969</v>
+        <v>0.06207771445188879</v>
       </c>
       <c r="C83">
-        <v>-0.07779361571040169</v>
+        <v>0.05234891055068156</v>
       </c>
       <c r="D83">
-        <v>-0.03595377662587235</v>
+        <v>0.01223329099468217</v>
       </c>
       <c r="E83">
-        <v>0.02024531737870267</v>
+        <v>0.02272225401926765</v>
       </c>
       <c r="F83">
-        <v>0.02794863426277587</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04688492571009181</v>
+      </c>
+      <c r="G83">
+        <v>-0.03534511709145181</v>
+      </c>
+      <c r="H83">
+        <v>0.05618245820064948</v>
+      </c>
+      <c r="I83">
+        <v>-0.04579504276157114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2456728312523614</v>
+        <v>0.2525475627003069</v>
       </c>
       <c r="C85">
-        <v>0.007507900908935389</v>
+        <v>0.074152863494688</v>
       </c>
       <c r="D85">
-        <v>-0.09248582336551926</v>
+        <v>0.00894658711317726</v>
       </c>
       <c r="E85">
-        <v>-0.04959009401332941</v>
+        <v>-0.1070741147822709</v>
       </c>
       <c r="F85">
-        <v>-0.1606374985426076</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1911854949005496</v>
+      </c>
+      <c r="G85">
+        <v>-0.05315435196779089</v>
+      </c>
+      <c r="H85">
+        <v>-0.01720608999512933</v>
+      </c>
+      <c r="I85">
+        <v>-0.04257038781661314</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.03830049694381492</v>
+        <v>0.02598809978373178</v>
       </c>
       <c r="C86">
-        <v>-0.0356674891558623</v>
+        <v>0.05424509837404975</v>
       </c>
       <c r="D86">
-        <v>-0.05347473513505523</v>
+        <v>0.003280896315761441</v>
       </c>
       <c r="E86">
-        <v>0.005363829267198698</v>
+        <v>-0.01104580722570003</v>
       </c>
       <c r="F86">
-        <v>0.08550445328625833</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08434058106232892</v>
+      </c>
+      <c r="G86">
+        <v>-0.05654764441093005</v>
+      </c>
+      <c r="H86">
+        <v>0.01850674599161338</v>
+      </c>
+      <c r="I86">
+        <v>-0.05638385332081824</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02073409518998345</v>
+        <v>0.02652074118942734</v>
       </c>
       <c r="C87">
-        <v>0.02701476380719647</v>
+        <v>-0.007123435103272747</v>
       </c>
       <c r="D87">
-        <v>0.02768484191759906</v>
+        <v>-0.002414993315634807</v>
       </c>
       <c r="E87">
-        <v>0.007503093327399178</v>
+        <v>0.001809070463252568</v>
       </c>
       <c r="F87">
-        <v>0.1016585011647043</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1101008572227816</v>
+      </c>
+      <c r="G87">
+        <v>-0.01699038249619902</v>
+      </c>
+      <c r="H87">
+        <v>-0.009980299611033661</v>
+      </c>
+      <c r="I87">
+        <v>-0.04869100909597895</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.02790763705048121</v>
+        <v>0.03555129739422935</v>
       </c>
       <c r="C88">
-        <v>-0.007565222629004976</v>
+        <v>0.007638883310994055</v>
       </c>
       <c r="D88">
-        <v>-0.02238997452317525</v>
+        <v>-0.002718516490707865</v>
       </c>
       <c r="E88">
-        <v>-0.02226174823272885</v>
+        <v>-0.01138979429467325</v>
       </c>
       <c r="F88">
-        <v>-0.00965745281519249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.007578880152422854</v>
+      </c>
+      <c r="G88">
+        <v>-0.01226466800267014</v>
+      </c>
+      <c r="H88">
+        <v>0.05308070548507141</v>
+      </c>
+      <c r="I88">
+        <v>0.001653728657910784</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.07547712057314435</v>
+        <v>0.1047431185082535</v>
       </c>
       <c r="C89">
-        <v>0.2259047272438152</v>
+        <v>-0.382537014788604</v>
       </c>
       <c r="D89">
-        <v>0.2875421466737504</v>
+        <v>0.04842636980499181</v>
       </c>
       <c r="E89">
-        <v>0.1024412325888489</v>
+        <v>0.05402244937952168</v>
       </c>
       <c r="F89">
-        <v>0.02972075608032364</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.03526550900526865</v>
+      </c>
+      <c r="G89">
+        <v>-0.1053054802513048</v>
+      </c>
+      <c r="H89">
+        <v>0.03311079444329993</v>
+      </c>
+      <c r="I89">
+        <v>-0.04828925426895119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.05446612406955855</v>
+        <v>0.06689248639841784</v>
       </c>
       <c r="C90">
-        <v>0.21039050425844</v>
+        <v>-0.3414043039617341</v>
       </c>
       <c r="D90">
-        <v>0.2631672284348008</v>
+        <v>0.02248181208387355</v>
       </c>
       <c r="E90">
-        <v>0.03738525058660052</v>
+        <v>0.05079756014054398</v>
       </c>
       <c r="F90">
-        <v>0.04248112379070616</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01613327895346185</v>
+      </c>
+      <c r="G90">
+        <v>-0.08752991643261487</v>
+      </c>
+      <c r="H90">
+        <v>0.01727491099720798</v>
+      </c>
+      <c r="I90">
+        <v>-0.01390228635913591</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2799136897707344</v>
+        <v>0.2867670054151241</v>
       </c>
       <c r="C91">
-        <v>0.01129491722581547</v>
+        <v>0.08343160319639863</v>
       </c>
       <c r="D91">
-        <v>-0.09962030961487918</v>
+        <v>0.01441599751882229</v>
       </c>
       <c r="E91">
-        <v>-0.03623215786210963</v>
+        <v>-0.1004360609052304</v>
       </c>
       <c r="F91">
-        <v>-0.2723845322047178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2761750511306532</v>
+      </c>
+      <c r="G91">
+        <v>-0.04160823127692811</v>
+      </c>
+      <c r="H91">
+        <v>-0.06319236093097387</v>
+      </c>
+      <c r="I91">
+        <v>-0.02541064631368124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.08745977577656701</v>
+        <v>0.1433740900263553</v>
       </c>
       <c r="C92">
-        <v>0.1774695715635035</v>
+        <v>-0.3643016496271288</v>
       </c>
       <c r="D92">
-        <v>0.3090531922944762</v>
+        <v>0.006269300072442644</v>
       </c>
       <c r="E92">
-        <v>0.02089276633637823</v>
+        <v>0.08213511722204823</v>
       </c>
       <c r="F92">
-        <v>-0.04607597782534651</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.09272190426472492</v>
+      </c>
+      <c r="G92">
+        <v>-0.2670105960841716</v>
+      </c>
+      <c r="H92">
+        <v>0.04290106367802694</v>
+      </c>
+      <c r="I92">
+        <v>0.07407889286667828</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.05178523604810446</v>
+        <v>0.08597015418301805</v>
       </c>
       <c r="C93">
-        <v>0.2406039983635432</v>
+        <v>-0.4019178935224159</v>
       </c>
       <c r="D93">
-        <v>0.3063755075481998</v>
+        <v>0.03550784024895382</v>
       </c>
       <c r="E93">
-        <v>0.05328784699465145</v>
+        <v>0.08261954804769675</v>
       </c>
       <c r="F93">
-        <v>-0.02239074707800941</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01430747903331629</v>
+      </c>
+      <c r="G93">
+        <v>-0.03595619739757956</v>
+      </c>
+      <c r="H93">
+        <v>0.04743675522419026</v>
+      </c>
+      <c r="I93">
+        <v>0.02316248206541793</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2737602930566784</v>
+        <v>0.3037391432415118</v>
       </c>
       <c r="C94">
-        <v>0.07594653680015524</v>
+        <v>-0.0070299311698466</v>
       </c>
       <c r="D94">
-        <v>0.00685588959216558</v>
+        <v>0.03652327658739075</v>
       </c>
       <c r="E94">
-        <v>-0.004268175703176539</v>
+        <v>-0.108963551480825</v>
       </c>
       <c r="F94">
-        <v>-0.2331218719412958</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2731132740278567</v>
+      </c>
+      <c r="G94">
+        <v>-0.09081836835550103</v>
+      </c>
+      <c r="H94">
+        <v>-0.2006335051685753</v>
+      </c>
+      <c r="I94">
+        <v>-0.01897220078906799</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1641123848904091</v>
+        <v>0.1304188990434492</v>
       </c>
       <c r="C95">
-        <v>-0.05289831056173733</v>
+        <v>0.06290260885662968</v>
       </c>
       <c r="D95">
-        <v>-0.06411873334963356</v>
+        <v>0.08449211582631537</v>
       </c>
       <c r="E95">
-        <v>0.07669975604480087</v>
+        <v>-0.02808799345105912</v>
       </c>
       <c r="F95">
-        <v>-0.4634674944259293</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.09028979269262458</v>
+      </c>
+      <c r="G95">
+        <v>0.07966558661310465</v>
+      </c>
+      <c r="H95">
+        <v>0.8772804491976304</v>
+      </c>
+      <c r="I95">
+        <v>0.3389809020816166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.204350955989818</v>
+        <v>0.2121565043838079</v>
       </c>
       <c r="C98">
-        <v>0.05436262001554827</v>
+        <v>-0.06483626539397601</v>
       </c>
       <c r="D98">
-        <v>0.06749562701054158</v>
+        <v>0.06840539022006378</v>
       </c>
       <c r="E98">
-        <v>0.09219386466867616</v>
+        <v>0.0247760123272757</v>
       </c>
       <c r="F98">
-        <v>0.04437557215599437</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1595000979168239</v>
+      </c>
+      <c r="G98">
+        <v>0.38897208235408</v>
+      </c>
+      <c r="H98">
+        <v>-0.04527661645554357</v>
+      </c>
+      <c r="I98">
+        <v>0.0173918350780313</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.03070504402749779</v>
+        <v>0.01706895179207529</v>
       </c>
       <c r="C101">
-        <v>-0.003794831146089234</v>
+        <v>0.03408227537637881</v>
       </c>
       <c r="D101">
-        <v>-0.04329612877433524</v>
+        <v>-0.00369690151714681</v>
       </c>
       <c r="E101">
-        <v>-0.01727779001204187</v>
+        <v>-0.03599568034075973</v>
       </c>
       <c r="F101">
-        <v>0.02656581877533341</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.07434131788819857</v>
+      </c>
+      <c r="G101">
+        <v>-0.09723277778572445</v>
+      </c>
+      <c r="H101">
+        <v>-0.009629039955615128</v>
+      </c>
+      <c r="I101">
+        <v>0.1326073698043642</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.09462144928814555</v>
+        <v>0.1149994333156915</v>
       </c>
       <c r="C102">
-        <v>0.01055193511237424</v>
+        <v>0.03170315468799272</v>
       </c>
       <c r="D102">
-        <v>-0.05593259571690407</v>
+        <v>-0.003648295239115144</v>
       </c>
       <c r="E102">
-        <v>-0.0346049295400579</v>
+        <v>-0.05244263979664943</v>
       </c>
       <c r="F102">
-        <v>-0.09206813930582976</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1137728474704752</v>
+      </c>
+      <c r="G102">
+        <v>-0.01936722154875576</v>
+      </c>
+      <c r="H102">
+        <v>-0.008403023950434182</v>
+      </c>
+      <c r="I102">
+        <v>-0.02736164057141519</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02050697212642462</v>
+        <v>0.02754408002409203</v>
       </c>
       <c r="C103">
-        <v>0.005765001673628968</v>
+        <v>0.01236867566395188</v>
       </c>
       <c r="D103">
-        <v>-0.021741842304069</v>
+        <v>-0.008754175277501521</v>
       </c>
       <c r="E103">
-        <v>-0.009115445577905614</v>
+        <v>-0.01863419224725246</v>
       </c>
       <c r="F103">
-        <v>-0.02596893676324324</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.02211999803165911</v>
+      </c>
+      <c r="G103">
+        <v>-0.01730241715444921</v>
+      </c>
+      <c r="H103">
+        <v>0.006705807842948922</v>
+      </c>
+      <c r="I103">
+        <v>-0.01203128866011005</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
